--- a/xls/slamp/slamp_originario.xlsx
+++ b/xls/slamp/slamp_originario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30640" windowHeight="24080"/>
+    <workbookView xWindow="-33780" yWindow="7200" windowWidth="30640" windowHeight="24080"/>
   </bookViews>
   <sheets>
     <sheet name="PRICE LIST 2021 " sheetId="17" r:id="rId1"/>
@@ -5185,9 +5185,6 @@
     <t>collection</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -5222,6 +5219,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -6158,10 +6158,10 @@
   <dimension ref="A1:EF462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -6169,7 +6169,7 @@
     <col min="1" max="1" width="14.6640625" style="55" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="56" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="58" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="15" style="15" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="15" customWidth="1"/>
@@ -6203,10 +6203,10 @@
         <v>1651</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1652</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1653</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>262</v>
@@ -6215,37 +6215,37 @@
         <v>449</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1655</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1657</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="68" t="s">
         <v>1661</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="R1" s="62" t="s">
         <v>1662</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="S1" s="108" t="s">
         <v>1663</v>
-      </c>
-      <c r="S1" s="108" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="17.25" customHeight="1">
